--- a/Estudo_RN.xlsx
+++ b/Estudo_RN.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anabela/Dropbox/05 - AULAS/Aulas 2021_22/2 Semestre/CR/04 - Ficha 04 - NN Iris/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://isecpt-my.sharepoint.com/personal/a2019142454_isec_pt/Documents/Faculdade/3º Ano/2º Semestre/CR/TP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C20068C-39E4-B549-977D-4BD01A1DE7D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="393" documentId="13_ncr:1_{4C20068C-39E4-B549-977D-4BD01A1DE7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABBAFE7E-5D65-4334-B5F8-A72C68AA7410}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17376" yWindow="2520" windowWidth="17472" windowHeight="19212" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IRIS" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="71">
   <si>
     <t>Função de treino</t>
   </si>
@@ -118,13 +118,136 @@
   </si>
   <si>
     <t>trainlm</t>
+  </si>
+  <si>
+    <t>Tempo Percorrido (min:sec)</t>
+  </si>
+  <si>
+    <t>trainrp</t>
+  </si>
+  <si>
+    <t>trainoss</t>
+  </si>
+  <si>
+    <t>trainscg</t>
+  </si>
+  <si>
+    <t>Conf7</t>
+  </si>
+  <si>
+    <t>Conf8</t>
+  </si>
+  <si>
+    <t>Conf9</t>
+  </si>
+  <si>
+    <t>Conf10</t>
+  </si>
+  <si>
+    <t>Conf11</t>
+  </si>
+  <si>
+    <t>Conf12</t>
+  </si>
+  <si>
+    <t>Conf13</t>
+  </si>
+  <si>
+    <t>Conf14</t>
+  </si>
+  <si>
+    <t>Conf15</t>
+  </si>
+  <si>
+    <t>Conf16</t>
+  </si>
+  <si>
+    <t>radbasn, purelin</t>
+  </si>
+  <si>
+    <t>purelin, purelin</t>
+  </si>
+  <si>
+    <t>purelin, logsig</t>
+  </si>
+  <si>
+    <t>radbasn, logsig</t>
+  </si>
+  <si>
+    <t>logsig, logsig</t>
+  </si>
+  <si>
+    <t>purelin, tansig</t>
+  </si>
+  <si>
+    <t>logsig, tansig</t>
+  </si>
+  <si>
+    <t>radbasn,tansig</t>
+  </si>
+  <si>
+    <t>tansig,tansig</t>
+  </si>
+  <si>
+    <t>purelin, radbasn</t>
+  </si>
+  <si>
+    <t>tansig, radbasn</t>
+  </si>
+  <si>
+    <t>logsig, radbasn</t>
+  </si>
+  <si>
+    <t>radbasn, radbasn</t>
+  </si>
+  <si>
+    <t>5,5,5,5</t>
+  </si>
+  <si>
+    <t>10,10,10,10</t>
+  </si>
+  <si>
+    <t>15,15,15,15</t>
+  </si>
+  <si>
+    <t>5,10,15,20</t>
+  </si>
+  <si>
+    <t>5,5,5,5,5,5</t>
+  </si>
+  <si>
+    <t>tansig, tansig, tansig, tansig, purelin</t>
+  </si>
+  <si>
+    <t>tansig, tansig, tansig, tansig, tansig, tansig, purelin</t>
+  </si>
+  <si>
+    <t>dividerand = {0.5, 0.25, 0.25}</t>
+  </si>
+  <si>
+    <t>dividerand = {0.25, 0.5, 0.25}</t>
+  </si>
+  <si>
+    <t>dividerand = {0.25, 0.25, 0.5}</t>
+  </si>
+  <si>
+    <t>dividerand = {0.6, 0.2, 0.2}</t>
+  </si>
+  <si>
+    <t>dividerand = {0.3, 0.2, 0.5}</t>
+  </si>
+  <si>
+    <t>dividerand = {0.8, 0.1, 0.1}</t>
+  </si>
+  <si>
+    <t>dividerand = {0.95, 0.025, 0.025}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -176,6 +299,14 @@
       <sz val="18"/>
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -314,24 +445,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -349,80 +465,107 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="73">
-    <cellStyle name="Hiperligação" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -760,23 +903,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -792,7 +935,9 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
@@ -800,455 +945,1203 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:9" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="2" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" ht="45.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7">
-        <v>10</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:9" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="9">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H3" s="7">
+        <v>89.66</v>
+      </c>
+      <c r="I3" s="10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:9" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
-    </row>
-    <row r="7" spans="1:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="13">
         <v>2</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="E7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1.3194444444444444E-2</v>
+      </c>
+      <c r="H7" s="7">
+        <v>84.33</v>
+      </c>
+      <c r="I7" s="10">
+        <v>71.11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="13">
         <v>2</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="E8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="9">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="H8" s="7">
+        <v>92.33</v>
+      </c>
+      <c r="I8" s="10">
+        <v>73.33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B9" s="13">
+        <v>4</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1.2499999999999999E-2</v>
+      </c>
+      <c r="H9" s="7">
+        <v>69.33</v>
+      </c>
+      <c r="I9" s="10">
+        <v>44.44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:9" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="B10" s="13">
+        <v>4</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="9">
+        <v>5.7638888888888885E-2</v>
+      </c>
+      <c r="H10" s="7">
+        <v>84.33</v>
+      </c>
+      <c r="I10" s="10">
+        <v>46.66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="13">
+        <v>4</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0.16388888888888889</v>
+      </c>
+      <c r="H11" s="11">
+        <v>86</v>
+      </c>
+      <c r="I11" s="10">
+        <v>62.22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="13">
+        <v>4</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="H12" s="7">
+        <v>77.33</v>
+      </c>
+      <c r="I12" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="13">
+        <v>6</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="9">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="H13" s="7">
+        <v>80.66</v>
+      </c>
+      <c r="I13" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
-    </row>
-    <row r="13" spans="1:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>10</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="9">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="H16" s="7">
+        <v>77.33</v>
+      </c>
+      <c r="I16" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="3">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3">
-        <v>10</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="F17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0.22291666666666665</v>
+      </c>
+      <c r="H17" s="7">
+        <v>18.329999999999998</v>
+      </c>
+      <c r="I17" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>10</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="11">
+        <v>23</v>
+      </c>
+      <c r="I18" s="8">
+        <v>22.22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:9" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <v>33.33</v>
+      </c>
+      <c r="I19" s="8">
+        <v>31.11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0</v>
+      </c>
+      <c r="H20" s="11">
+        <v>64.33</v>
+      </c>
+      <c r="I20" s="8">
+        <v>48.88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="9">
+        <v>6.0416666666666667E-2</v>
+      </c>
+      <c r="H21" s="11">
+        <v>90.66</v>
+      </c>
+      <c r="I21" s="8">
+        <v>64.44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
-    </row>
-    <row r="20" spans="1:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="3">
-        <v>1</v>
-      </c>
-      <c r="C20" s="3">
-        <v>10</v>
-      </c>
-      <c r="D20" s="6" t="s">
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2">
+        <v>10</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="1:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="E24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="9">
+        <v>9.5833333333333326E-2</v>
+      </c>
+      <c r="H24" s="7">
+        <v>91.33</v>
+      </c>
+      <c r="I24" s="10">
+        <v>71.11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="3">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3">
-        <v>10</v>
-      </c>
-      <c r="D21" s="6" t="s">
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>10</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="9">
+        <v>8.7500000000000008E-2</v>
+      </c>
+      <c r="H25" s="7">
+        <v>77.39</v>
+      </c>
+      <c r="I25" s="10">
+        <v>75.55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
+        <v>10</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="9">
+        <v>5.347222222222222E-2</v>
+      </c>
+      <c r="H26" s="7">
+        <v>62.33</v>
+      </c>
+      <c r="I26" s="10">
+        <v>42.22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <v>10</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="9">
+        <v>4.2361111111111106E-2</v>
+      </c>
+      <c r="H27" s="7">
+        <v>89.33</v>
+      </c>
+      <c r="I27" s="10">
+        <v>57.77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
+        <v>10</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="9">
+        <v>7.7083333333333337E-2</v>
+      </c>
+      <c r="H28" s="11">
+        <v>36</v>
+      </c>
+      <c r="I28" s="10">
+        <v>33.33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>10</v>
+      </c>
+      <c r="D29" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="1:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="E29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="9">
+        <v>9.2361111111111116E-2</v>
+      </c>
+      <c r="H29" s="7">
+        <v>67.66</v>
+      </c>
+      <c r="I29" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2">
+        <v>10</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="9">
+        <v>3.0555555555555555E-2</v>
+      </c>
+      <c r="H30" s="7">
+        <v>13.33</v>
+      </c>
+      <c r="I30" s="10">
+        <v>8.8800000000000008</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2">
+        <v>10</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="9">
+        <v>0.15833333333333333</v>
+      </c>
+      <c r="H31" s="11">
+        <v>48</v>
+      </c>
+      <c r="I31" s="10">
+        <v>35.549999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2">
+        <v>10</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="9">
+        <v>8.4722222222222213E-2</v>
+      </c>
+      <c r="H32" s="7">
+        <v>77.33</v>
+      </c>
+      <c r="I32" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2">
+        <v>10</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="9">
+        <v>9.7916666666666666E-2</v>
+      </c>
+      <c r="H33" s="7">
+        <v>32.33</v>
+      </c>
+      <c r="I33" s="10">
+        <v>35.549999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2">
+        <v>10</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="9">
+        <v>7.2222222222222229E-2</v>
+      </c>
+      <c r="H34" s="11">
+        <v>52</v>
+      </c>
+      <c r="I34" s="10">
+        <v>35.549999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2">
+        <v>10</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="9">
+        <v>9.8611111111111108E-2</v>
+      </c>
+      <c r="H35" s="7">
+        <v>92.66</v>
+      </c>
+      <c r="I35" s="10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2">
+        <v>10</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="9">
+        <v>8.1250000000000003E-2</v>
+      </c>
+      <c r="H36" s="7">
+        <v>21.33</v>
+      </c>
+      <c r="I36" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2">
+        <v>10</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="9">
+        <v>0.21319444444444444</v>
+      </c>
+      <c r="H37" s="7">
+        <v>89.33</v>
+      </c>
+      <c r="I37" s="10">
+        <v>64.44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2">
+        <v>10</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="9">
+        <v>0.19166666666666665</v>
+      </c>
+      <c r="H38" s="11">
+        <v>65</v>
+      </c>
+      <c r="I38" s="10">
+        <v>51.11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2">
+        <v>10</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="9">
+        <v>7.9861111111111105E-2</v>
+      </c>
+      <c r="H39" s="7">
+        <v>24.66</v>
+      </c>
+      <c r="I39" s="10">
+        <v>17.78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2">
+        <v>10</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G42" s="9">
+        <v>5.486111111111111E-2</v>
+      </c>
+      <c r="H42" s="7">
+        <v>69.33</v>
+      </c>
+      <c r="I42" s="10">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2">
+        <v>10</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G43" s="9">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="H43" s="11">
+        <v>82</v>
+      </c>
+      <c r="I43" s="10">
+        <v>73.33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="1:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="B44" s="2">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2">
+        <v>10</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G44" s="9">
+        <v>5.347222222222222E-2</v>
+      </c>
+      <c r="H44" s="11">
+        <v>83</v>
+      </c>
+      <c r="I44" s="10">
+        <v>62.66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="1:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="B45" s="2">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2">
+        <v>10</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G45" s="9">
+        <v>8.7500000000000008E-2</v>
+      </c>
+      <c r="H45" s="7">
+        <v>68.66</v>
+      </c>
+      <c r="I45" s="10">
+        <v>58.66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="1:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="B46" s="2">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2">
+        <v>10</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G46" s="9">
+        <v>8.7500000000000008E-2</v>
+      </c>
+      <c r="H46" s="7">
+        <v>50.33</v>
+      </c>
+      <c r="I46" s="10">
+        <v>42.66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:9" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="11"/>
-    </row>
-    <row r="28" spans="1:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="3">
-        <v>1</v>
-      </c>
-      <c r="C28" s="3">
-        <v>10</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="1:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="3">
-        <v>1</v>
-      </c>
-      <c r="C29" s="3">
-        <v>10</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="1:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="1:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="5"/>
-    </row>
-    <row r="33" spans="1:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="5"/>
+      <c r="B47" s="2">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2">
+        <v>10</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G47" s="9">
+        <v>5.1388888888888894E-2</v>
+      </c>
+      <c r="H47" s="7">
+        <v>84.66</v>
+      </c>
+      <c r="I47" s="10">
+        <v>61.66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2">
+        <v>10</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G48" s="9">
+        <v>0.11875000000000001</v>
+      </c>
+      <c r="H48" s="7">
+        <v>72.33</v>
+      </c>
+      <c r="I48" s="10">
+        <v>60.66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" s="2">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2">
+        <v>10</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G49" s="9">
+        <v>3.8194444444444441E-2</v>
+      </c>
+      <c r="H49" s="7">
+        <v>90.66</v>
+      </c>
+      <c r="I49" s="10">
+        <v>73.33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" s="2">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2">
+        <v>10</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G50" s="9">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="H50" s="7">
+        <v>98.33</v>
+      </c>
+      <c r="I50" s="10">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A19:I19"/>
-    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A41:I41"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Estudo_RN.xlsx
+++ b/Estudo_RN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://isecpt-my.sharepoint.com/personal/a2019142454_isec_pt/Documents/Faculdade/3º Ano/2º Semestre/CR/TP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="393" documentId="13_ncr:1_{4C20068C-39E4-B549-977D-4BD01A1DE7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABBAFE7E-5D65-4334-B5F8-A72C68AA7410}"/>
+  <xr:revisionPtr revIDLastSave="394" documentId="13_ncr:1_{4C20068C-39E4-B549-977D-4BD01A1DE7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1072DEEC-2AFC-4096-B8F0-95BCEF54B06B}"/>
   <bookViews>
-    <workbookView xWindow="-17376" yWindow="2520" windowWidth="17472" windowHeight="19212" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17280" yWindow="-24" windowWidth="17472" windowHeight="15360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IRIS" sheetId="1" r:id="rId1"/>
@@ -456,15 +456,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -490,6 +481,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -905,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -965,39 +965,39 @@
       <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="6">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="4">
         <v>89.66</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="7">
         <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:9" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="6"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="15"/>
     </row>
     <row r="7" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="10">
         <v>2</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1009,24 +1009,24 @@
       <c r="F7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="6">
         <v>1.3194444444444444E-2</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="4">
         <v>84.33</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="7">
         <v>71.11</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="10">
         <v>2</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1038,24 +1038,24 @@
       <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="6">
         <v>7.2916666666666671E-2</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="4">
         <v>92.33</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="7">
         <v>73.33</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="10">
         <v>4</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="9" t="s">
         <v>57</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1067,24 +1067,24 @@
       <c r="F9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="6">
         <v>1.2499999999999999E-2</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="4">
         <v>69.33</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="7">
         <v>44.44</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="10">
         <v>4</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="9" t="s">
         <v>58</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1096,24 +1096,24 @@
       <c r="F10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="6">
         <v>5.7638888888888885E-2</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="4">
         <v>84.33</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="7">
         <v>46.66</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="10">
         <v>4</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="9" t="s">
         <v>59</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1125,24 +1125,24 @@
       <c r="F11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="6">
         <v>0.16388888888888889</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="8">
         <v>86</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="7">
         <v>62.22</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="10">
         <v>4</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="9" t="s">
         <v>60</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -1154,24 +1154,24 @@
       <c r="F12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="6">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="4">
         <v>77.33</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="7">
         <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="10">
         <v>6</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="9" t="s">
         <v>61</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1183,32 +1183,32 @@
       <c r="F13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="6">
         <v>1.8749999999999999E-2</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="4">
         <v>80.66</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="7">
         <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="6"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="15"/>
     </row>
     <row r="16" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="2">
@@ -1220,24 +1220,24 @@
       <c r="D16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="10" t="s">
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="6">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="4">
         <v>77.33</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="7">
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="2">
@@ -1249,24 +1249,24 @@
       <c r="D17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="10" t="s">
         <v>20</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="6">
         <v>0.22291666666666665</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="4">
         <v>18.329999999999998</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="7">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="2">
@@ -1278,24 +1278,24 @@
       <c r="D18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="9" t="s">
         <v>31</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="6">
         <v>0</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="8">
         <v>23</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="5">
         <v>22.22</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="2">
@@ -1307,24 +1307,24 @@
       <c r="D19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="9" t="s">
         <v>32</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="6">
         <v>0</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="8">
         <v>33.33</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="5">
         <v>31.11</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="2">
@@ -1336,24 +1336,24 @@
       <c r="D20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="9" t="s">
         <v>33</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="6">
         <v>0</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="8">
         <v>64.33</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="5">
         <v>48.88</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="2">
@@ -1365,38 +1365,38 @@
       <c r="D21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="9" t="s">
         <v>29</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="6">
         <v>6.0416666666666667E-2</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="8">
         <v>90.66</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="5">
         <v>64.44</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="6"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="15"/>
     </row>
     <row r="24" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="2">
@@ -1405,7 +1405,7 @@
       <c r="C24" s="2">
         <v>10</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -1414,18 +1414,18 @@
       <c r="F24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="6">
         <v>9.5833333333333326E-2</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="4">
         <v>91.33</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="7">
         <v>71.11</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B25" s="2">
@@ -1434,7 +1434,7 @@
       <c r="C25" s="2">
         <v>10</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -1443,18 +1443,18 @@
       <c r="F25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="6">
         <v>8.7500000000000008E-2</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="4">
         <v>77.39</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="7">
         <v>75.55</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B26" s="2">
@@ -1463,7 +1463,7 @@
       <c r="C26" s="2">
         <v>10</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="9" t="s">
         <v>44</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -1472,18 +1472,18 @@
       <c r="F26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="6">
         <v>5.347222222222222E-2</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="4">
         <v>62.33</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="7">
         <v>42.22</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B27" s="2">
@@ -1492,7 +1492,7 @@
       <c r="C27" s="2">
         <v>10</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -1501,18 +1501,18 @@
       <c r="F27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="6">
         <v>4.2361111111111106E-2</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="4">
         <v>89.33</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I27" s="7">
         <v>57.77</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="2">
@@ -1521,7 +1521,7 @@
       <c r="C28" s="2">
         <v>10</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="9" t="s">
         <v>46</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -1530,18 +1530,18 @@
       <c r="F28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="6">
         <v>7.7083333333333337E-2</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H28" s="8">
         <v>36</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="7">
         <v>33.33</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B29" s="2">
@@ -1550,7 +1550,7 @@
       <c r="C29" s="2">
         <v>10</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -1559,18 +1559,18 @@
       <c r="F29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="6">
         <v>9.2361111111111116E-2</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="4">
         <v>67.66</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="7">
         <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B30" s="2">
@@ -1579,7 +1579,7 @@
       <c r="C30" s="2">
         <v>10</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="9" t="s">
         <v>47</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -1588,18 +1588,18 @@
       <c r="F30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="6">
         <v>3.0555555555555555E-2</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="4">
         <v>13.33</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="7">
         <v>8.8800000000000008</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B31" s="2">
@@ -1608,7 +1608,7 @@
       <c r="C31" s="2">
         <v>10</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="9" t="s">
         <v>48</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -1617,18 +1617,18 @@
       <c r="F31" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="6">
         <v>0.15833333333333333</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H31" s="8">
         <v>48</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="7">
         <v>35.549999999999997</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B32" s="2">
@@ -1637,7 +1637,7 @@
       <c r="C32" s="2">
         <v>10</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="9" t="s">
         <v>49</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -1646,18 +1646,18 @@
       <c r="F32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="6">
         <v>8.4722222222222213E-2</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="4">
         <v>77.33</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I32" s="7">
         <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B33" s="2">
@@ -1666,7 +1666,7 @@
       <c r="C33" s="2">
         <v>10</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="9" t="s">
         <v>50</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -1675,18 +1675,18 @@
       <c r="F33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="6">
         <v>9.7916666666666666E-2</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="4">
         <v>32.33</v>
       </c>
-      <c r="I33" s="10">
+      <c r="I33" s="7">
         <v>35.549999999999997</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B34" s="2">
@@ -1695,7 +1695,7 @@
       <c r="C34" s="2">
         <v>10</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="9" t="s">
         <v>51</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -1704,18 +1704,18 @@
       <c r="F34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="6">
         <v>7.2222222222222229E-2</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H34" s="8">
         <v>52</v>
       </c>
-      <c r="I34" s="10">
+      <c r="I34" s="7">
         <v>35.549999999999997</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="11" t="s">
         <v>39</v>
       </c>
       <c r="B35" s="2">
@@ -1724,7 +1724,7 @@
       <c r="C35" s="2">
         <v>10</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="12" t="s">
         <v>52</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -1733,18 +1733,18 @@
       <c r="F35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="6">
         <v>9.8611111111111108E-2</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="4">
         <v>92.66</v>
       </c>
-      <c r="I35" s="10">
+      <c r="I35" s="7">
         <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B36" s="2">
@@ -1753,7 +1753,7 @@
       <c r="C36" s="2">
         <v>10</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="9" t="s">
         <v>53</v>
       </c>
       <c r="E36" s="2" t="s">
@@ -1762,18 +1762,18 @@
       <c r="F36" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="6">
         <v>8.1250000000000003E-2</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="4">
         <v>21.33</v>
       </c>
-      <c r="I36" s="10">
+      <c r="I36" s="7">
         <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B37" s="2">
@@ -1782,7 +1782,7 @@
       <c r="C37" s="2">
         <v>10</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="9" t="s">
         <v>54</v>
       </c>
       <c r="E37" s="2" t="s">
@@ -1791,18 +1791,18 @@
       <c r="F37" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G37" s="6">
         <v>0.21319444444444444</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="4">
         <v>89.33</v>
       </c>
-      <c r="I37" s="10">
+      <c r="I37" s="7">
         <v>64.44</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B38" s="2">
@@ -1811,7 +1811,7 @@
       <c r="C38" s="2">
         <v>10</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="9" t="s">
         <v>55</v>
       </c>
       <c r="E38" s="2" t="s">
@@ -1820,18 +1820,18 @@
       <c r="F38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="6">
         <v>0.19166666666666665</v>
       </c>
-      <c r="H38" s="11">
+      <c r="H38" s="8">
         <v>65</v>
       </c>
-      <c r="I38" s="10">
+      <c r="I38" s="7">
         <v>51.11</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B39" s="2">
@@ -1840,7 +1840,7 @@
       <c r="C39" s="2">
         <v>10</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="9" t="s">
         <v>56</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -1849,32 +1849,32 @@
       <c r="F39" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G39" s="6">
         <v>7.9861111111111105E-2</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="4">
         <v>24.66</v>
       </c>
-      <c r="I39" s="10">
+      <c r="I39" s="7">
         <v>17.78</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="6"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="15"/>
     </row>
     <row r="42" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B42" s="2">
@@ -1889,21 +1889,21 @@
       <c r="E42" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="F42" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G42" s="6">
         <v>5.486111111111111E-2</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H42" s="4">
         <v>69.33</v>
       </c>
-      <c r="I42" s="10">
+      <c r="I42" s="7">
         <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B43" s="2">
@@ -1918,21 +1918,21 @@
       <c r="E43" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="F43" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G43" s="6">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="H43" s="11">
+      <c r="H43" s="8">
         <v>82</v>
       </c>
-      <c r="I43" s="10">
+      <c r="I43" s="7">
         <v>73.33</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B44" s="2">
@@ -1947,21 +1947,21 @@
       <c r="E44" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F44" s="12" t="s">
+      <c r="F44" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G44" s="6">
         <v>5.347222222222222E-2</v>
       </c>
-      <c r="H44" s="11">
+      <c r="H44" s="8">
         <v>83</v>
       </c>
-      <c r="I44" s="10">
+      <c r="I44" s="7">
         <v>62.66</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B45" s="2">
@@ -1976,21 +1976,21 @@
       <c r="E45" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F45" s="12" t="s">
+      <c r="F45" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G45" s="6">
         <v>8.7500000000000008E-2</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H45" s="4">
         <v>68.66</v>
       </c>
-      <c r="I45" s="10">
+      <c r="I45" s="7">
         <v>58.66</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B46" s="2">
@@ -2005,21 +2005,21 @@
       <c r="E46" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F46" s="12" t="s">
+      <c r="F46" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G46" s="6">
         <v>8.7500000000000008E-2</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H46" s="4">
         <v>50.33</v>
       </c>
-      <c r="I46" s="10">
+      <c r="I46" s="7">
         <v>42.66</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B47" s="2">
@@ -2034,21 +2034,21 @@
       <c r="E47" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F47" s="12" t="s">
+      <c r="F47" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G47" s="9">
+      <c r="G47" s="6">
         <v>5.1388888888888894E-2</v>
       </c>
-      <c r="H47" s="7">
+      <c r="H47" s="4">
         <v>84.66</v>
       </c>
-      <c r="I47" s="10">
+      <c r="I47" s="7">
         <v>61.66</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B48" s="2">
@@ -2063,21 +2063,21 @@
       <c r="E48" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F48" s="12" t="s">
+      <c r="F48" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G48" s="6">
         <v>0.11875000000000001</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H48" s="4">
         <v>72.33</v>
       </c>
-      <c r="I48" s="10">
+      <c r="I48" s="7">
         <v>60.66</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B49" s="2">
@@ -2092,21 +2092,21 @@
       <c r="E49" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F49" s="12" t="s">
+      <c r="F49" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G49" s="9">
+      <c r="G49" s="6">
         <v>3.8194444444444441E-2</v>
       </c>
-      <c r="H49" s="7">
+      <c r="H49" s="4">
         <v>90.66</v>
       </c>
-      <c r="I49" s="10">
+      <c r="I49" s="7">
         <v>73.33</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B50" s="2">
@@ -2121,16 +2121,16 @@
       <c r="E50" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F50" s="12" t="s">
+      <c r="F50" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G50" s="9">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="H50" s="7">
+      <c r="G50" s="6">
+        <v>6.9444444444444434E-2</v>
+      </c>
+      <c r="H50" s="4">
         <v>98.33</v>
       </c>
-      <c r="I50" s="10">
+      <c r="I50" s="7">
         <v>75</v>
       </c>
     </row>
